--- a/project_1/medicoesRCOM.xlsx
+++ b/project_1/medicoesRCOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="RCOM" sheetId="1" state="visible" r:id="rId2"/>
@@ -44,7 +44,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -68,52 +68,6 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <i val="true"/>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="24"/>
-      <color rgb="FF000000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="DejaVu Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
@@ -132,37 +86,18 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +109,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -198,46 +133,6 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -252,34 +147,24 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Accent" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="29" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -311,7 +196,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -338,7 +223,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -446,16 +331,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.896880347918924</c:v>
+                  <c:v>1.68618508925343</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.44204559743865</c:v>
+                  <c:v>0.386013636332921</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.195503672217773</c:v>
+                  <c:v>0.294517590498102</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -520,16 +405,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.633645025678569</c:v>
+                  <c:v>1.41072894865194</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.720068319830083</c:v>
+                  <c:v>0.525649873475961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.191843019516774</c:v>
+                  <c:v>0.321626685021205</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -594,16 +479,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1.30560983692733</c:v>
+                  <c:v>0.6567054367163</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v/>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.289857278588998</c:v>
+                  <c:v>0.574617257126763</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.115384110421331</c:v>
+                  <c:v>0.254257562354303</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,11 +496,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="47587600"/>
-        <c:axId val="79598512"/>
+        <c:axId val="12230724"/>
+        <c:axId val="67236654"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47587600"/>
+        <c:axId val="12230724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -651,14 +536,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="79598512"/>
+        <c:crossAx val="67236654"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79598512"/>
+        <c:axId val="67236654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -674,7 +559,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -701,9 +586,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47587600"/>
+        <c:crossAx val="12230724"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -739,7 +623,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -784,8 +668,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.293658600563971"/>
-          <c:y val="0.0462235247102704"/>
+          <c:x val="0.293612277019937"/>
+          <c:y val="0.0462296829203304"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -864,7 +748,7 @@
                   <c:v>1208.99470899471</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00813825473720329</c:v>
+                  <c:v>0.00646313861325088</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -938,7 +822,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00748093997274122</c:v>
+                  <c:v>0.00572896389644561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +896,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00585705009274773</c:v>
+                  <c:v>0.00820413879234215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1020,11 +904,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="63109352"/>
-        <c:axId val="67095195"/>
+        <c:axId val="36466002"/>
+        <c:axId val="20636947"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="63109352"/>
+        <c:axId val="36466002"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1060,14 +944,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67095195"/>
+        <c:crossAx val="20636947"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67095195"/>
+        <c:axId val="20636947"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,7 +967,7 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1110,9 +994,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="63109352"/>
+        <c:crossAx val="36466002"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1148,7 +1031,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1265,7 +1148,7 @@
                   <c:v>604.497354497355</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00358609546647537</c:v>
+                  <c:v>0.00285307812605683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1339,7 +1222,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00320123577507767</c:v>
+                  <c:v>0.00321684877550264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1413,7 +1296,7 @@
                   <c:v/>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.00327020478494647</c:v>
+                  <c:v>0.00401134298955755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1421,11 +1304,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="33910885"/>
-        <c:axId val="58205963"/>
+        <c:axId val="47999413"/>
+        <c:axId val="65050658"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="33910885"/>
+        <c:axId val="47999413"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,14 +1344,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="58205963"/>
+        <c:crossAx val="65050658"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="58205963"/>
+        <c:axId val="65050658"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1511,9 +1394,8 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="33910885"/>
+        <c:crossAx val="47999413"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1560,9 +1442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1571,7 +1453,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14227200" y="496800"/>
-        <a:ext cx="5489280" cy="2702160"/>
+        <a:ext cx="5488920" cy="2701800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1590,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>222120</xdr:colOff>
+      <xdr:colOff>221760</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>69480</xdr:rowOff>
+      <xdr:rowOff>69120</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1601,7 +1483,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="14227200" y="3676680"/>
-        <a:ext cx="5489280" cy="2702160"/>
+        <a:ext cx="5488920" cy="2701800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1620,9 +1502,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>323640</xdr:colOff>
+      <xdr:colOff>323280</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:rowOff>95040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1631,7 +1513,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="19958040" y="1771560"/>
-        <a:ext cx="5327280" cy="2705040"/>
+        <a:ext cx="5326920" cy="2704680"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1651,19 +1533,19 @@
   </sheetPr>
   <dimension ref="A2:I45"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6234817813765"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="0" width="25.4655870445344"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="18.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="25.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1690,35 +1572,62 @@
         <v>0</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>1348</v>
+        <v>717</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>2735</v>
+        <v>3132</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>26631</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>6184</v>
+        <v>4105</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>46162</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="n">
-        <v>1908</v>
+        <v>857</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>1679</v>
+        <v>2300</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>26737</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>6302</v>
+        <v>3759</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>50203</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="n">
-        <v>926</v>
+        <v>1841</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4171</v>
+        <v>2104</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>25603</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>10478</v>
+        <v>4755</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>47890</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1726,44 +1635,62 @@
         <v>1</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>44443</v>
+        <v>44433</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>84440</v>
+        <v>101019</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>11438</v>
+        <v>25819</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>148557</v>
+        <v>187060</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>48610</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
-        <v>44620</v>
+        <v>44399</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>94587</v>
+        <v>92946</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>11438</v>
+        <v>24079</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>161610</v>
+        <v>211032</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>54851</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
-        <v>44979</v>
+        <v>44674</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>99448</v>
+        <v>96818</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>11438</v>
+        <v>25009</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>206417</v>
+        <v>147364</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>37795</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1771,7 +1698,10 @@
         <v>2</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>88883</v>
+        <v>88471</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>155061</v>
@@ -1780,12 +1710,18 @@
         <v>19785</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>337134</v>
+        <v>423751</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>55046</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
-        <v>88808</v>
+        <v>88344</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>170842</v>
@@ -1794,12 +1730,18 @@
         <v>21896</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>377665</v>
+        <v>375832</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>49143</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
-        <v>88767</v>
+        <v>88357</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>11474</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>203380</v>
@@ -1808,7 +1750,10 @@
         <v>25976</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>369700</v>
+        <v>301394</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>39323</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,15 +1782,15 @@
       </c>
       <c r="D27" s="0" t="n">
         <f aca="false">( 10968 / (B12/1000) ) / 9072</f>
-        <v>0.896880347918924</v>
+        <v>1.68618508925343</v>
       </c>
       <c r="F27" s="0" t="n">
         <f aca="false">( 10968 / (D12/1000) ) / 9072</f>
-        <v>0.44204559743865</v>
+        <v>0.386013636332921</v>
       </c>
       <c r="G27" s="0" t="n">
         <f aca="false">( 10968 / (F12/1000) ) / 9072</f>
-        <v>0.195503672217773</v>
+        <v>0.294517590498102</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1855,15 +1800,15 @@
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">( 10968 / (B13/1000) ) / 9072</f>
-        <v>0.633645025678569</v>
+        <v>1.41072894865194</v>
       </c>
       <c r="F28" s="0" t="n">
         <f aca="false">( 10968 / (D13/1000) ) / 9072</f>
-        <v>0.720068319830083</v>
+        <v>0.525649873475961</v>
       </c>
       <c r="G28" s="0" t="n">
         <f aca="false">( 10968 / (F13/1000) ) / 9072</f>
-        <v>0.191843019516774</v>
+        <v>0.321626685021205</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1873,15 +1818,15 @@
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">( 10968 / (B14/1000) ) / 9072</f>
-        <v>1.30560983692733</v>
+        <v>0.6567054367163</v>
       </c>
       <c r="F29" s="0" t="n">
         <f aca="false">( 10968 / (D14/1000) ) / 9072</f>
-        <v>0.289857278588998</v>
+        <v>0.574617257126763</v>
       </c>
       <c r="G29" s="0" t="n">
         <f aca="false">( 10968 / (F14/1000) ) / 9072</f>
-        <v>0.115384110421331</v>
+        <v>0.254257562354303</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,7 +1856,7 @@
       </c>
       <c r="G31" s="0" t="n">
         <f aca="false">( 10968 / (F16/1000) ) / 9072</f>
-        <v>0.00813825473720329</v>
+        <v>0.00646313861325088</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1929,7 +1874,7 @@
       </c>
       <c r="G32" s="0" t="n">
         <f aca="false">( 10968 / (F17/1000) ) / 9072</f>
-        <v>0.00748093997274122</v>
+        <v>0.00572896389644561</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1947,7 +1892,7 @@
       </c>
       <c r="G33" s="0" t="n">
         <f aca="false">( 10968 / (F18/1000) ) / 9072</f>
-        <v>0.00585705009274773</v>
+        <v>0.00820413879234215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1977,7 +1922,7 @@
       </c>
       <c r="G35" s="0" t="n">
         <f aca="false">( 10968 / (F20/1000) ) / 9072</f>
-        <v>0.00358609546647537</v>
+        <v>0.00285307812605683</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1995,7 +1940,7 @@
       </c>
       <c r="G36" s="0" t="n">
         <f aca="false">( 10968 / (F21/1000) ) / 9072</f>
-        <v>0.00320123577507767</v>
+        <v>0.00321684877550264</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2013,7 +1958,7 @@
       </c>
       <c r="G37" s="0" t="n">
         <f aca="false">( 10968 / (F22/1000) ) / 9072</f>
-        <v>0.00327020478494647</v>
+        <v>0.00401134298955755</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2040,7 +1985,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/project_1/medicoesRCOM.xlsx
+++ b/project_1/medicoesRCOM.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bernardomcbarbosa/git/RCOM-FEUP/project_1/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18640" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="RCOM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="RCOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -20,52 +30,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t xml:space="preserve">BAUDRATE = 38400</t>
+    <t>BAUDRATE = 38400</t>
   </si>
   <si>
-    <t xml:space="preserve">bytes</t>
+    <t>bytes</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R = 10968 /1348</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S=R/C</t>
+    <t>S=R/C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="15"/>
@@ -75,21 +61,20 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="DejaVu Sans"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +86,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -109,57 +94,30 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="5">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hiperligação Visitada" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -218,56 +176,97 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
-              <a:t>S em função de TPROP = 0</a:t>
+              <a:rPr lang="pt-PT"/>
+              <a:t>S em função de TPROP=0</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -277,70 +276,57 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$27:$B$27</c:f>
+              <c:f>RCOM!$D$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$26:$G$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$27:$G$27</c:f>
+              <c:f>RCOM!$E$27:$G$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.68618508925343</c:v>
+                  <c:v>3.333914458391446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>1.771431992337165</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.386013636332921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.294517590498102</c:v>
+                  <c:v>2.342773041006902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -351,70 +337,57 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$28:$B$28</c:f>
+              <c:f>RCOM!$D$28</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$26:$G$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$28:$G$28</c:f>
+              <c:f>RCOM!$E$28:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.41072894865194</c:v>
+                  <c:v>2.789284325165305</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>2.421829710144928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.525649873475961</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.321626685021205</c:v>
+                  <c:v>2.782377848718631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,82 +398,77 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$29:$B$29</c:f>
+              <c:f>RCOM!$D$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$26:$G$26</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$29:$G$29</c:f>
+              <c:f>RCOM!$E$29:$G$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.6567054367163</c:v>
+                  <c:v>1.298433822198081</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>2.535151299112801</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.574617257126763</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.254257562354303</c:v>
+                  <c:v>2.098229933403435</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="12230724"/>
-        <c:axId val="67236654"/>
+        <c:axId val="-1292770880"/>
+        <c:axId val="-1503594480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="12230724"/>
+        <c:axId val="-1292770880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -511,39 +479,47 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67236654"/>
+        <c:crossAx val="-1503594480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67236654"/>
+        <c:axId val="-1503594480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,131 +527,202 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="12230724"/>
+        <c:crossAx val="-1292770880"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>S em função de TPROP=1</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.293612277019937"/>
-          <c:y val="0.0462296829203304"/>
-        </c:manualLayout>
-      </c:layout>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -685,7 +732,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$31:$B$31</c:f>
+              <c:f>RCOM!$D$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -696,59 +743,46 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$30:$G$30</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$31:$G$31</c:f>
+              <c:f>RCOM!$E$31:$G$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0272032650584954</c:v>
+                  <c:v>0.0537982280437213</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0532469964396137</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1208.99470899471</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00646313861325088</c:v>
+                  <c:v>0.054138155315585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -759,70 +793,57 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$32:$B$32</c:f>
+              <c:f>RCOM!$D$32</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$30:$G$30</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$32:$G$32</c:f>
+              <c:f>RCOM!$E$32:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0270953543028846</c:v>
+                  <c:v>0.0538394258128937</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0539717506222251</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00572896389644561</c:v>
+                  <c:v>0.0541495681539608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,82 +854,77 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$33:$B$33</c:f>
+              <c:f>RCOM!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$30:$G$30</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$33:$G$33</c:f>
+              <c:f>RCOM!$E$33:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0268790926653485</c:v>
+                  <c:v>0.0535080061482443</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0538144594324747</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00820413879234215</c:v>
+                  <c:v>0.0534320345086543</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="36466002"/>
-        <c:axId val="20636947"/>
+        <c:axId val="-1261340736"/>
+        <c:axId val="-1261338416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="36466002"/>
+        <c:axId val="-1261340736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -919,39 +935,47 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="20636947"/>
+        <c:crossAx val="-1261338416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20636947"/>
+        <c:axId val="-1261338416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,12 +983,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -972,110 +1000,186 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="36466002"/>
+        <c:crossAx val="-1261340736"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
         <c:rich>
-          <a:bodyPr rot="0"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="1400" spc="-1" strike="noStrike">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="595959"/>
-                </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
-              </a:rPr>
+              <a:rPr lang="pt-PT"/>
               <a:t>S em função de TPROP=2</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
+      <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -1085,70 +1189,57 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$35:$B$35</c:f>
+              <c:f>RCOM!$D$35</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="4472c4"/>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$34:$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$35:$G$35</c:f>
+              <c:f>RCOM!$E$35:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.01360209161476</c:v>
+                  <c:v>0.0270192115683859</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0265822805218591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.497354497355</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00285307812605683</c:v>
+                  <c:v>0.0270628663216527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,7 +1250,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$36:$B$36</c:f>
+              <c:f>RCOM!$D$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1170,59 +1261,46 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="ed7d31"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$34:$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$36:$G$36</c:f>
+              <c:f>RCOM!$E$36:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0136135788329284</c:v>
+                  <c:v>0.0270580533671406</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0267010844327897</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00321684877550264</c:v>
+                  <c:v>0.0272412274633347</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,82 +1311,77 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>RCOM!$B$37:$B$37</c:f>
+              <c:f>RCOM!$D$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="a5a5a5"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLblPos val="outEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
-            <c:strRef>
-              <c:f>RCOM!$D$34:$G$34</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
+            <c:numRef>
+              <c:f>RCOM!$E$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>RCOM!$D$37:$G$37</c:f>
+              <c:f>RCOM!$E$37:$G$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0136198667184281</c:v>
+                  <c:v>0.027054072305156</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v/>
+                  <c:v>0.0266086471957256</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v/>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.00401134298955755</c:v>
+                  <c:v>0.0271813362796428</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="47999413"/>
-        <c:axId val="65050658"/>
+        <c:axId val="-1296234608"/>
+        <c:axId val="-1296295648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="47999413"/>
+        <c:axId val="-1296234608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1319,39 +1392,47 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="9360">
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:srgbClr val="d9d9d9"/>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:round/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65050658"/>
+        <c:crossAx val="-1296295648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65050658"/>
+        <c:axId val="-1296295648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1359,12 +1440,16 @@
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
-            <a:ln w="9360">
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:srgbClr val="d9d9d9"/>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
+            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1372,88 +1457,1765 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
-          <a:ln w="6480">
+          <a:noFill/>
+          <a:ln>
             <a:noFill/>
           </a:ln>
+          <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr/>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:srgbClr val="595959"/>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
                 </a:solidFill>
-                <a:uFill>
-                  <a:solidFill>
-                    <a:srgbClr val="ffffff"/>
-                  </a:solidFill>
-                </a:uFill>
-                <a:latin typeface="Calibri"/>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47999413"/>
+        <c:crossAx val="-1296234608"/>
         <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
+        <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:srgbClr val="ffffff"/>
+      <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9360">
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:srgbClr val="d9d9d9"/>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:round/>
     </a:ln>
+    <a:effectLst/>
   </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1238400</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>146520</xdr:rowOff>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="0" name="Gráfico 14"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14227200" y="496800"/>
-        <a:ext cx="5488920" cy="2701800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1463,27 +3225,29 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>1238400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>221760</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Gráfico 16"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="14227200" y="3676680"/>
-        <a:ext cx="5488920" cy="2701800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1493,27 +3257,29 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>463680</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>323280</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>95040</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 17"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="19958040" y="1771560"/>
-        <a:ext cx="5326920" cy="2704680"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1526,467 +3292,696 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A2:I45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="25.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="18.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.79"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="4" width="25.5" customWidth="1"/>
+    <col min="5" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="1025" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="n">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="D10">
         <v>30</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10">
         <v>50</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
         <v>0</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12">
         <v>717</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12">
         <v>11474</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12">
         <v>3132</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="E12">
         <v>26631</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12">
         <v>4105</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="G12">
         <v>46162</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="n">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B13">
         <v>857</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13">
         <v>11474</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13">
         <v>2300</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="E13">
         <v>26737</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13">
         <v>3759</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13">
         <v>50203</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="n">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B14">
         <v>1841</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14">
         <v>11474</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14">
         <v>2104</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="E14">
         <v>25603</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14">
         <v>4755</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="G14">
         <v>47890</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="n">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16">
         <v>1</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16">
         <v>44433</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16">
         <v>11474</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16">
         <v>101019</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="E16">
         <v>25819</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16">
         <v>187060</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="G16">
         <v>48610</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="n">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B17">
         <v>44399</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17">
         <v>11474</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17">
         <v>92946</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E17">
         <v>24079</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17">
         <v>211032</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="G17">
         <v>54851</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="n">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B18">
         <v>44674</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18">
         <v>11474</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18">
         <v>96818</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="E18">
         <v>25009</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18">
         <v>147364</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>37795</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="n">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20">
         <v>2</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20">
         <v>88471</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20">
         <v>11474</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20">
         <v>155061</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="E20">
         <v>19785</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20">
         <v>423751</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="G20">
         <v>55046</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="n">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B21">
         <v>88344</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="C21">
         <v>11474</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21">
         <v>170842</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="E21">
         <v>21896</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21">
         <v>375832</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="G21">
         <v>49143</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="n">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B22">
         <v>88357</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="C22">
         <v>11474</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22">
         <v>203380</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="E22">
         <v>25976</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22">
         <v>301394</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="G22">
         <v>39323</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D26" s="0" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26">
         <v>30</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>50</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">( 10968 / (B12/1000) ) / 9072</f>
-        <v>1.68618508925343</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <f aca="false">( 10968 / (D12/1000) ) / 9072</f>
-        <v>0.386013636332921</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <f aca="false">( 10968 / (F12/1000) ) / 9072</f>
-        <v>0.294517590498102</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2"/>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <f>((C12*8)/(B12/1000))/38400</f>
+        <v>3.3339144583914457</v>
+      </c>
+      <c r="F27">
+        <f>((E12*8)/(D12/1000))/38400</f>
+        <v>1.7714319923371646</v>
+      </c>
+      <c r="G27">
+        <f>((G12*8)/(F12/1000))/38400</f>
+        <v>2.3427730410069021</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" s="0" t="n">
-        <f aca="false">( 10968 / (B13/1000) ) / 9072</f>
-        <v>1.41072894865194</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <f aca="false">( 10968 / (D13/1000) ) / 9072</f>
-        <v>0.525649873475961</v>
-      </c>
-      <c r="G28" s="0" t="n">
-        <f aca="false">( 10968 / (F13/1000) ) / 9072</f>
-        <v>0.321626685021205</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2"/>
+      <c r="D28">
+        <v>2</v>
+      </c>
+      <c r="E28">
+        <f>((C13*8)/(B13/1000))/38400</f>
+        <v>2.7892843251653052</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28:F37" si="0">((E13*8)/(D13/1000))/38400</f>
+        <v>2.421829710144928</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ref="G28:G37" si="1">((G13*8)/(F13/1000))/38400</f>
+        <v>2.7823778487186313</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" s="0" t="n">
-        <f aca="false">( 10968 / (B14/1000) ) / 9072</f>
-        <v>0.6567054367163</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <f aca="false">( 10968 / (D14/1000) ) / 9072</f>
-        <v>0.574617257126763</v>
-      </c>
-      <c r="G29" s="0" t="n">
-        <f aca="false">( 10968 / (F14/1000) ) / 9072</f>
-        <v>0.254257562354303</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2"/>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <f>((C14*8)/(B14/1000))/38400</f>
+        <v>1.2984338221980809</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>2.5351512991128007</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>2.0982299334034349</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="D30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G30" s="0" t="n">
-        <v>50</v>
-      </c>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="0" t="n">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="D31">
         <v>1</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <f aca="false">( 10968 / (A16/1000) ) / 9072</f>
-        <v>0.0272032650584954</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <f aca="false">( 10968 / (A16/1000) ) / 9072</f>
-        <v>1208.99470899471</v>
-      </c>
-      <c r="G31" s="0" t="n">
-        <f aca="false">( 10968 / (F16/1000) ) / 9072</f>
-        <v>0.00646313861325088</v>
+      <c r="E31">
+        <f>((C16*8)/(B16/1000))/38400</f>
+        <v>5.3798228043721266E-2</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>5.324699643961367E-2</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>5.4138155315585017E-2</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1"/>
-      <c r="B32" s="0" t="n">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <f>((C17*8)/(B17/1000))/38400</f>
+        <v>5.3839425812893679E-2</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>5.397175062222509E-2</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>5.4149568153960853E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33">
+        <f>((C18*8)/(B18/1000))/38400</f>
+        <v>5.3508006148244316E-2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>5.3814459432474683E-2</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>5.3432034508654309E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="2"/>
+      <c r="D35">
         <v>1</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <f aca="false">( 10968 / (A17/1000) ) / 9072</f>
-        <v>0.0270953543028846</v>
-      </c>
-      <c r="F32" s="0" t="e">
-        <f aca="false">( 10968 / (A17/1000) ) / 9072</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G32" s="0" t="n">
-        <f aca="false">( 10968 / (F17/1000) ) / 9072</f>
-        <v>0.00572896389644561</v>
+      <c r="E35">
+        <f>((C20*8)/(B20/1000))/38400</f>
+        <v>2.7019211568385871E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>2.6582280521859139E-2</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>2.7062866321652734E-2</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1"/>
-      <c r="B33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D33" s="0" t="n">
-        <f aca="false">( 10968 / (A18/1000) ) / 9072</f>
-        <v>0.0268790926653485</v>
-      </c>
-      <c r="F33" s="0" t="e">
-        <f aca="false">( 10968 / (A18/1000) ) / 9072</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G33" s="0" t="n">
-        <f aca="false">( 10968 / (F18/1000) ) / 9072</f>
-        <v>0.00820413879234215</v>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="2"/>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <f>((C21*8)/(B21/1000))/38400</f>
+        <v>2.7058053367140573E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>2.6701084432789745E-2</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>2.7241227463334679E-2</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1"/>
-      <c r="D34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" s="0" t="n">
-        <v>50</v>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="2"/>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <f>((C22*8)/(B22/1000))/38400</f>
+        <v>2.7054072305155975E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>2.6608647195725574E-2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>2.7181336279642813E-2</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1"/>
-      <c r="B35" s="0" t="n">
+    <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="1:8" ht="19" x14ac:dyDescent="0.2">
+      <c r="H45" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <f aca="false">( 10968 / (A20/1000) ) / 9072</f>
-        <v>0.01360209161476</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <f aca="false">( 10968 / (A20/1000) ) / 9072</f>
-        <v>604.497354497355</v>
-      </c>
-      <c r="G35" s="0" t="n">
-        <f aca="false">( 10968 / (F20/1000) ) / 9072</f>
-        <v>0.00285307812605683</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1"/>
-      <c r="B36" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D36" s="0" t="n">
-        <f aca="false">( 10968 / (A21/1000) ) / 9072</f>
-        <v>0.0136135788329284</v>
-      </c>
-      <c r="F36" s="0" t="e">
-        <f aca="false">( 10968 / (A21/1000) ) / 9072</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G36" s="0" t="n">
-        <f aca="false">( 10968 / (F21/1000) ) / 9072</f>
-        <v>0.00321684877550264</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1"/>
-      <c r="B37" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D37" s="0" t="n">
-        <f aca="false">( 10968 / (A22/1000) ) / 9072</f>
-        <v>0.0136198667184281</v>
-      </c>
-      <c r="F37" s="0" t="e">
-        <f aca="false">( 10968 / (A22/1000) ) / 9072</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G37" s="0" t="n">
-        <f aca="false">( 10968 / (F22/1000) ) / 9072</f>
-        <v>0.00401134298955755</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H42" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I42" s="0" t="n">
-        <v>9072</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H45" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="D25:G25"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0" right="0" top="0.39374999999999999" bottom="0.39374999999999999" header="0" footer="0"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>

--- a/project_1/medicoesRCOM.xlsx
+++ b/project_1/medicoesRCOM.xlsx
@@ -320,13 +320,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>3.333914458391446</c:v>
+                  <c:v>0.833478614597861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.771431992337165</c:v>
+                  <c:v>0.442857998084291</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.342773041006902</c:v>
+                  <c:v>0.585693260251726</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -381,13 +381,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2.789284325165305</c:v>
+                  <c:v>0.697321081291326</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.421829710144928</c:v>
+                  <c:v>0.605457427536232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.782377848718631</c:v>
+                  <c:v>0.695594462179658</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -442,13 +442,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1.298433822198081</c:v>
+                  <c:v>0.32460845554952</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.535151299112801</c:v>
+                  <c:v>0.6337878247782</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.098229933403435</c:v>
+                  <c:v>0.524557483350859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,13 +776,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0537982280437213</c:v>
+                  <c:v>0.0134495570109303</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0532469964396137</c:v>
+                  <c:v>0.0133117491099034</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.054138155315585</c:v>
+                  <c:v>0.0135345388288963</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,13 +837,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0538394258128937</c:v>
+                  <c:v>0.0134598564532234</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0539717506222251</c:v>
+                  <c:v>0.0134929376555563</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0541495681539608</c:v>
+                  <c:v>0.0135373920384902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -898,13 +898,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0535080061482443</c:v>
+                  <c:v>0.0133770015370611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0538144594324747</c:v>
+                  <c:v>0.0134536148581187</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0534320345086543</c:v>
+                  <c:v>0.0133580086271636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1233,13 +1233,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0270192115683859</c:v>
+                  <c:v>0.00675480289209647</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0265822805218591</c:v>
+                  <c:v>0.00664557013046478</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0270628663216527</c:v>
+                  <c:v>0.00676571658041318</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1294,13 +1294,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.0270580533671406</c:v>
+                  <c:v>0.00676451334178514</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0267010844327897</c:v>
+                  <c:v>0.00667527110819743</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0272412274633347</c:v>
+                  <c:v>0.00681030686583367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1355,13 +1355,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>0.027054072305156</c:v>
+                  <c:v>0.00676351807628899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0266086471957256</c:v>
+                  <c:v>0.00665216179893139</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0271813362796428</c:v>
+                  <c:v>0.0067953340699107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3558,7 +3558,7 @@
   <dimension ref="A2:H45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -3801,38 +3801,46 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
+      <c r="C27">
+        <f>LOG(8.2)</f>
+        <v>0.91381385238371671</v>
+      </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27">
-        <f>((C12*8)/(B12/1000))/38400</f>
-        <v>3.3339144583914457</v>
+        <f>((C12*8)/(B12/1000))/(38400*2*2)</f>
+        <v>0.83347861459786143</v>
       </c>
       <c r="F27">
-        <f>((E12*8)/(D12/1000))/38400</f>
-        <v>1.7714319923371646</v>
+        <f>((E12*8)/(D12/1000))/(38400*2*2)</f>
+        <v>0.44285799808429116</v>
       </c>
       <c r="G27">
-        <f>((G12*8)/(F12/1000))/38400</f>
-        <v>2.3427730410069021</v>
+        <f>((G12*8)/(F12/1000))/(38400*2*2)</f>
+        <v>0.58569326025172552</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
+      <c r="C28">
+        <f>LOG(10)</f>
+        <v>1</v>
+      </c>
       <c r="D28">
         <v>2</v>
       </c>
       <c r="E28">
-        <f>((C13*8)/(B13/1000))/38400</f>
-        <v>2.7892843251653052</v>
+        <f t="shared" ref="E28:E37" si="0">((C13*8)/(B13/1000))/(38400*2*2)</f>
+        <v>0.69732108129132631</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F37" si="0">((E13*8)/(D13/1000))/38400</f>
-        <v>2.421829710144928</v>
+        <f t="shared" ref="F28:F37" si="1">((E13*8)/(D13/1000))/(38400*2*2)</f>
+        <v>0.605457427536232</v>
       </c>
       <c r="G28">
-        <f t="shared" ref="G28:G37" si="1">((G13*8)/(F13/1000))/38400</f>
-        <v>2.7823778487186313</v>
+        <f t="shared" ref="G28:G37" si="2">((G13*8)/(F13/1000))/(38400*2*2)</f>
+        <v>0.69559446217965781</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
@@ -3841,16 +3849,16 @@
         <v>3</v>
       </c>
       <c r="E29">
-        <f>((C14*8)/(B14/1000))/38400</f>
-        <v>1.2984338221980809</v>
+        <f t="shared" si="0"/>
+        <v>0.32460845554952023</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>2.5351512991128007</v>
+        <f t="shared" si="1"/>
+        <v>0.63378782477820017</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
-        <v>2.0982299334034349</v>
+        <f t="shared" si="2"/>
+        <v>0.52455748335085872</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.15">
@@ -3862,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <f>((C16*8)/(B16/1000))/38400</f>
-        <v>5.3798228043721266E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3449557010930317E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>5.324699643961367E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3311749109903417E-2</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
-        <v>5.4138155315585017E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3534538828896254E-2</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.15">
@@ -3880,16 +3888,16 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <f>((C17*8)/(B17/1000))/38400</f>
-        <v>5.3839425812893679E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.345985645322342E-2</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>5.397175062222509E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3492937655556272E-2</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
-        <v>5.4149568153960853E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3537392038490213E-2</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
@@ -3898,16 +3906,16 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <f>((C18*8)/(B18/1000))/38400</f>
-        <v>5.3508006148244316E-2</v>
+        <f t="shared" si="0"/>
+        <v>1.3377001537061079E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>5.3814459432474683E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3453614858118671E-2</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
-        <v>5.3432034508654309E-2</v>
+        <f t="shared" si="2"/>
+        <v>1.3358008627163577E-2</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
@@ -3919,16 +3927,16 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <f>((C20*8)/(B20/1000))/38400</f>
-        <v>2.7019211568385871E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7548028920964677E-3</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>2.6582280521859139E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6455701304647848E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
-        <v>2.7062866321652734E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7657165804131834E-3</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
@@ -3937,16 +3945,16 @@
         <v>2</v>
       </c>
       <c r="E36">
-        <f>((C21*8)/(B21/1000))/38400</f>
-        <v>2.7058053367140573E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7645133417851434E-3</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>2.6701084432789745E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6752711081974362E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
-        <v>2.7241227463334679E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.8103068658336699E-3</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
@@ -3955,16 +3963,16 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <f>((C22*8)/(B22/1000))/38400</f>
-        <v>2.7054072305155975E-2</v>
+        <f t="shared" si="0"/>
+        <v>6.7635180762889938E-3</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>2.6608647195725574E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.6521617989313934E-3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
-        <v>2.7181336279642813E-2</v>
+        <f t="shared" si="2"/>
+        <v>6.7953340699107032E-3</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="19" x14ac:dyDescent="0.2">
